--- a/leetcode-tracker.xlsx
+++ b/leetcode-tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudra\Desktop\java-dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CEB92-F8F4-41BC-855B-4F4842EB2F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93621B63-2872-4E4F-AC72-D6B175054ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Rudy's Leetcode Problem Solving Archives</t>
   </si>
@@ -40,13 +40,31 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/richest-customer-wealth/description/</t>
+  </si>
+  <si>
+    <t>Make sure to reset any variable value OUTSIDE the loops, not inside.</t>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-numbers-with-even-number-of-digits/description/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +84,14 @@
       <name val="Cascadia Mono SemiLight"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,15 +110,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,17 +403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="1" customWidth="1"/>
     <col min="4" max="4" width="80.109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -405,7 +437,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="32.4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{981F03A4-86CC-4E8A-AE30-E9E5786F1CF3}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{1ADEABEA-83A4-4F4F-ACC1-0858D15C152B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/leetcode-tracker.xlsx
+++ b/leetcode-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudra\Desktop\java-dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93621B63-2872-4E4F-AC72-D6B175054ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033CE519-D2FE-476D-AA95-2E73C39D8924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,39 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Rudy's Leetcode Problem Solving Archives</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Richest Customer Wealth</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/richest-customer-wealth/description/</t>
-  </si>
-  <si>
-    <t>Make sure to reset any variable value OUTSIDE the loops, not inside.</t>
-  </si>
-  <si>
-    <t>Find Numbers with Even Number of Digits</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-numbers-with-even-number-of-digits/description/</t>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>Self/Guided/Cheated [Overall]</t>
+  </si>
+  <si>
+    <t>S/G/C [Algo]</t>
+  </si>
+  <si>
+    <t>S/G/C [Code]</t>
+  </si>
+  <si>
+    <t>Question</t>
   </si>
 </sst>
 </file>
@@ -93,12 +78,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -122,6 +113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -129,6 +121,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1E3A8A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -403,73 +400,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="38.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="37.200000000000003" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="37.200000000000003" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32.4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{981F03A4-86CC-4E8A-AE30-E9E5786F1CF3}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{1ADEABEA-83A4-4F4F-ACC1-0858D15C152B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/leetcode-tracker.xlsx
+++ b/leetcode-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudra\Desktop\java-dsa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033CE519-D2FE-476D-AA95-2E73C39D8924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A533B-FBD6-4CB7-8843-72489E7A9D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Rudy's Leetcode Problem Solving Archives</t>
   </si>
@@ -43,13 +43,22 @@
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+  </si>
+  <si>
+    <t>Guided</t>
+  </si>
+  <si>
+    <t>Self</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +82,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,15 +122,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,7 +421,7 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -423,30 +441,46 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{1309475C-C6A3-4B4F-9FB4-1669951B10BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>